--- a/KUDIR/KUDIR/ReportTemplates/Отгрузка.xlsx
+++ b/KUDIR/KUDIR/ReportTemplates/Отгрузка.xlsx
@@ -247,41 +247,41 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,7 +590,7 @@
   <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,405 +618,415 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
     </row>
     <row r="2" spans="1:32" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="7" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="9"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="5"/>
     </row>
     <row r="3" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="7" t="s">
+      <c r="K3" s="5"/>
+      <c r="L3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="7" t="s">
+      <c r="M3" s="5"/>
+      <c r="N3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="7" t="s">
+      <c r="O3" s="5"/>
+      <c r="P3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="7" t="s">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="9"/>
-      <c r="T3" s="7" t="s">
+      <c r="S3" s="5"/>
+      <c r="T3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="9"/>
-      <c r="V3" s="7" t="s">
+      <c r="U3" s="5"/>
+      <c r="V3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="9"/>
-      <c r="X3" s="7" t="s">
+      <c r="W3" s="5"/>
+      <c r="X3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="7" t="s">
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="7" t="s">
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="4" t="s">
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AE3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="9"/>
+      <c r="AF3" s="5"/>
     </row>
     <row r="4" spans="1:32" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="3" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="3" t="s">
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="2">
         <v>5</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="2">
         <v>6</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="2">
         <v>7</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="2">
         <v>8</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="2">
         <v>9</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="2">
         <v>10</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="2">
         <v>11</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="2">
         <v>12</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="2">
         <v>13</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="2">
         <v>14</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="2">
         <v>15</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="2">
         <v>16</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="2">
         <v>17</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="2">
         <v>18</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="2">
         <v>19</v>
       </c>
-      <c r="T5" s="10">
-        <v>20</v>
-      </c>
-      <c r="U5" s="10">
-        <v>21</v>
-      </c>
-      <c r="V5" s="10">
+      <c r="T5" s="2">
+        <v>20</v>
+      </c>
+      <c r="U5" s="2">
+        <v>21</v>
+      </c>
+      <c r="V5" s="2">
         <v>22</v>
       </c>
-      <c r="W5" s="10">
+      <c r="W5" s="2">
         <v>23</v>
       </c>
-      <c r="X5" s="10">
+      <c r="X5" s="2">
         <v>24</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y5" s="2">
         <v>25</v>
       </c>
-      <c r="Z5" s="10">
-        <v>26</v>
-      </c>
-      <c r="AA5" s="10">
+      <c r="Z5" s="2">
+        <v>26</v>
+      </c>
+      <c r="AA5" s="2">
         <v>27</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AB5" s="2">
         <v>28</v>
       </c>
-      <c r="AC5" s="10">
+      <c r="AC5" s="2">
         <v>29</v>
       </c>
-      <c r="AD5" s="10">
+      <c r="AD5" s="2">
         <v>30</v>
       </c>
-      <c r="AE5" s="10">
+      <c r="AE5" s="2">
         <v>31</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AF5" s="2">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF6" s="11" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF6" s="12" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AC3"/>
@@ -1030,16 +1040,6 @@
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/KUDIR/KUDIR/ReportTemplates/Отгрузка.xlsx
+++ b/KUDIR/KUDIR/ReportTemplates/Отгрузка.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$2:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$2:$5</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -253,35 +253,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,153 +618,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
     </row>
     <row r="2" spans="1:32" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="4" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="5"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="11"/>
     </row>
     <row r="3" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="4" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="4" t="s">
+      <c r="O3" s="11"/>
+      <c r="P3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="4" t="s">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="4" t="s">
+      <c r="S3" s="11"/>
+      <c r="T3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="5"/>
-      <c r="V3" s="4" t="s">
+      <c r="U3" s="11"/>
+      <c r="V3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="5"/>
-      <c r="X3" s="4" t="s">
+      <c r="W3" s="11"/>
+      <c r="X3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="4" t="s">
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="4" t="s">
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="7" t="s">
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="5"/>
+      <c r="AF3" s="11"/>
     </row>
     <row r="4" spans="1:32" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="1" t="s">
@@ -952,81 +952,71 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF6" s="12" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF6" s="3" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AC3"/>
@@ -1040,6 +1030,16 @@
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
